--- a/data/season_05-06.xlsx
+++ b/data/season_05-06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10bd0caeed7dcdf8/Desktop/Football SA/Sports-Analytics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DD2A1C19-530F-420F-8CDA-1E25D56E91E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ACDF1016-EDC2-40B4-992A-30C5FBEE5169}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{DD2A1C19-530F-420F-8CDA-1E25D56E91E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88D66640-DB0C-4EAF-B298-2525B5DE7599}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53683356-1E1F-4411-AD3A-4A1CD9F69F8A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>jersey_number</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Dudú Aouate</t>
-  </si>
-  <si>
-    <t>Season 05/06</t>
   </si>
   <si>
     <t>Overal Rating</t>
@@ -223,18 +220,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,7 +242,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +560,7 @@
   <dimension ref="D3:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,9 +580,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
@@ -610,25 +599,25 @@
         <v>4</v>
       </c>
       <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
